--- a/public/example/巴黎舞會訂單資料匯入範例檔案.xlsx
+++ b/public/example/巴黎舞會訂單資料匯入範例檔案.xlsx
@@ -131,6 +131,12 @@
   </si>
   <si>
     <t>p1</t>
+  </si>
+  <si>
+    <t>giftcard</t>
+  </si>
+  <si>
+    <t>EGFOBXVR</t>
   </si>
 </sst>
 </file>
@@ -523,7 +529,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1">
-      <selection pane="topLeft" activeCell="H3" sqref="H3"/>
+      <selection pane="topLeft" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="16"/>
@@ -564,6 +570,9 @@
         <v>17</v>
       </c>
       <c r="H1" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="0" t="s">
         <v>19</v>
       </c>
     </row>
@@ -586,10 +595,13 @@
       <c r="F2">
         <v>2</v>
       </c>
-      <c r="G2">
-        <v>4400</v>
+      <c r="G2" s="0">
+        <v>4000</v>
       </c>
       <c r="H2" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="0" t="s">
         <v>20</v>
       </c>
     </row>
